--- a/data/Radiomics_changed.xlsx
+++ b/data/Radiomics_changed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Git\sa-uta8-utaut\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2746D-CE7E-4225-8C74-78189E2D2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D478CCB-B219-4F3F-9FC4-166516D991EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1306,11 +1306,20 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1320,15 +1329,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1934,7 +1934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1945,32 +1945,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>182</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -68879,7 +68879,7 @@
       <c r="E2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="115" t="s">
         <v>89</v>
       </c>
@@ -68894,7 +68894,7 @@
       <c r="E3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="119"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:7">
@@ -68907,7 +68907,7 @@
       <c r="E4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="120"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="115" t="s">
         <v>93</v>
       </c>
@@ -68922,7 +68922,7 @@
       <c r="E5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="120"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:7">
@@ -68933,7 +68933,7 @@
         <v>95</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="121"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="115" t="s">
         <v>96</v>
       </c>
@@ -68946,7 +68946,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="121"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="115"/>
     </row>
     <row r="8" spans="1:7">
@@ -68957,7 +68957,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="116"/>
+      <c r="F8" s="119"/>
       <c r="G8" s="115" t="s">
         <v>99</v>
       </c>
@@ -68973,7 +68973,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="116"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="115"/>
     </row>
     <row r="10" spans="1:7">
@@ -68992,7 +68992,7 @@
       <c r="E10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="115" t="s">
         <v>104</v>
       </c>
@@ -69013,7 +69013,7 @@
       <c r="E11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="115"/>
     </row>
     <row r="12" spans="1:7">
@@ -69032,7 +69032,7 @@
       <c r="E12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="115" t="s">
         <v>107</v>
       </c>
@@ -69053,7 +69053,7 @@
       <c r="E13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="118"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="115"/>
     </row>
     <row r="14" spans="1:7">
@@ -69072,7 +69072,7 @@
       <c r="E14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="114"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="115" t="s">
         <v>111</v>
       </c>
@@ -69093,7 +69093,7 @@
       <c r="E15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="115"/>
     </row>
     <row r="16" spans="1:7">
@@ -69516,12 +69516,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="F8:F9"/>
@@ -69530,6 +69524,12 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/Radiomics_changed.xlsx
+++ b/data/Radiomics_changed.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Git\sa-uta8-utaut\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D478CCB-B219-4F3F-9FC4-166516D991EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19DA2AE-058A-43A6-9EB3-0E88A488278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="questions" sheetId="4" r:id="rId2"/>
     <sheet name="EFA" sheetId="3" r:id="rId3"/>
     <sheet name="CFA" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId5"/>
+    <sheet name="abstract" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AK$301</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="255">
   <si>
     <t>Q1</t>
   </si>
@@ -722,12 +724,93 @@
   <si>
     <t>Q35+Q36+Q37</t>
   </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -893,6 +976,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -992,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1129,13 +1219,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1332,6 +1442,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1932,9 +2050,9 @@
   </sheetPr>
   <dimension ref="A1:AK1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -68844,7 +68962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF668B8-7CA0-E24A-B3D6-4B921EBC0BF2}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
@@ -75891,7 +76009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB84251B-E7E3-9B4C-9A6A-4686C2594901}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -77218,4 +77336,277 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ABD468-BEFC-494D-A86A-71C8E0CBC5E6}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="126"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="123">
+        <v>0.3573780139237252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="123">
+        <v>0.12771904483606633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="123">
+        <v>0.12479192753685849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="123">
+        <v>0.84323518502604067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A8" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="124">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="125"/>
+      <c r="B11" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="123">
+        <v>1</v>
+      </c>
+      <c r="C12" s="123">
+        <v>31.025084641427725</v>
+      </c>
+      <c r="D12" s="123">
+        <v>31.025084641427725</v>
+      </c>
+      <c r="E12" s="123">
+        <v>43.63304636634517</v>
+      </c>
+      <c r="F12" s="123">
+        <v>1.8186939965801601E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="123">
+        <v>298</v>
+      </c>
+      <c r="C13" s="123">
+        <v>211.89158202523851</v>
+      </c>
+      <c r="D13" s="123">
+        <v>0.71104557726590101</v>
+      </c>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A14" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="124">
+        <v>299</v>
+      </c>
+      <c r="C14" s="124">
+        <v>242.91666666666623</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="125"/>
+      <c r="B16" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="123">
+        <v>2.9322099107417645</v>
+      </c>
+      <c r="C17" s="123">
+        <v>0.14247242722061165</v>
+      </c>
+      <c r="D17" s="123">
+        <v>20.580893917118289</v>
+      </c>
+      <c r="E17" s="123">
+        <v>3.5774697708090762E-59</v>
+      </c>
+      <c r="F17" s="123">
+        <v>2.6518303705965676</v>
+      </c>
+      <c r="G17" s="123">
+        <v>3.2125894508869615</v>
+      </c>
+      <c r="H17" s="123">
+        <v>2.6518303705965676</v>
+      </c>
+      <c r="I17" s="123">
+        <v>3.2125894508869615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A18" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="124">
+        <v>0.34549092028316503</v>
+      </c>
+      <c r="C18" s="124">
+        <v>5.230327346201815E-2</v>
+      </c>
+      <c r="D18" s="124">
+        <v>6.6055314976424055</v>
+      </c>
+      <c r="E18" s="124">
+        <v>1.8186939965795444E-10</v>
+      </c>
+      <c r="F18" s="124">
+        <v>0.24256035296250406</v>
+      </c>
+      <c r="G18" s="124">
+        <v>0.448421487603826</v>
+      </c>
+      <c r="H18" s="124">
+        <v>0.24256035296250406</v>
+      </c>
+      <c r="I18" s="124">
+        <v>0.448421487603826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97B142D-D55E-4306-A0CA-4B2C8D4E8D0A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Data!V2:AB301)</f>
+        <v>3.8685714285714288</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.STDEV.P(Data!V2:AB301)</f>
+        <v>0.91903824322876071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>